--- a/biology/Histoire de la zoologie et de la botanique/Zeno_Payne_Metcalf/Zeno_Payne_Metcalf.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Zeno_Payne_Metcalf/Zeno_Payne_Metcalf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zeno Payne Metcalf (né à Lakeville, Ohio, États-Unis le 1er mai 1885 et mort à Raleigh, Caroline du Nord, États-Unis le 5 janvier 1956) est un entomologiste américain spécialiste de l'ancien sous-ordre des Homoptères (Auchenorrhyncha). Il est l'auteur de la description de nombreux genres et espèces[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zeno Payne Metcalf (né à Lakeville, Ohio, États-Unis le 1er mai 1885 et mort à Raleigh, Caroline du Nord, États-Unis le 5 janvier 1956) est un entomologiste américain spécialiste de l'ancien sous-ordre des Homoptères (Auchenorrhyncha). Il est l'auteur de la description de nombreux genres et espèces.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zeno Payne Metclaf est né à Lakeville, Ohio aux États-Unis[3] le 1er mai 1885[2]. Fils d'Abel Crawford Metcalf et de Catherine (Fulmer) Metcalf, il est le frère de Clell Lee Metcalf (1888-1948), entomologiste spécialiste des diptères, et l'oncle de Robert Lee Metcalf (1916-1998) également entomologiste[4].
-Il étudie à l'Université d'État de l'Ohio où il obtient son Baccalauréat en 1907, puis à l'Université Harvard où il obtient son Doctorat en sciences en 1925[2],[Note 1].
-Il enseigne l'entomologie à l'Université d'État du Michigan pendant un an, de 1907 à 1908, puis rejoint le Département de l'agriculture de la Caroline du Nord ou il exerce jusqu'en 1912 comme assistant entomologiste. En 1912, il devient professeur associé à l'Université d'État de Caroline du Nord où il réalisera toute sa carrière et où il deviendra professeur "William Neal Reynolds" (l'une des plus hautes distinctions de cette Université) de zoologie et d'entomologie en 1953[2].
-Il épouse, le 20 octobre 1909, Mary Luella Correll originaire de Wooster dans l'Ohio dont il aura une fille, Katherine (épouse Brown)[2].
-Il a été directeur du Département de zoologie et d'entomologie de l'Université d'État de Caroline du Nord de 1912 à 1950, directeur de l'Enseignement à l'Ecole d'Agriculture de 1923 à 1944, directeur des études supérieures de 1940 à 1943 et vice-doyen de la Graduate School de 1943 à 1950. À diverses occasions, il a été professeur invité à l'Université d'État de l'Ohio, à l'Université d'État du Michigan et à l'Université Duke[2],[3].
-Zeno Payne Metcalf a été un membre actif de nombreuses sociétés savantes et a notamment été président de la Société américaine d'écologie (1949) et de l'American Microscopical Society (1927)[2],[3]. Il a également été éditeur de la revue Ecology[2] et président de l'Académie des sciences de Caroline du Nord[3].
-Il est mort le 5 janvier 1956 dans sa maison de Raleigh, Caroline du Nord aux États-Unis[2],[3]. Il est enterré au cimetière Oakwood de Raleigh, Caroline du Nord[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zeno Payne Metclaf est né à Lakeville, Ohio aux États-Unis le 1er mai 1885. Fils d'Abel Crawford Metcalf et de Catherine (Fulmer) Metcalf, il est le frère de Clell Lee Metcalf (1888-1948), entomologiste spécialiste des diptères, et l'oncle de Robert Lee Metcalf (1916-1998) également entomologiste.
+Il étudie à l'Université d'État de l'Ohio où il obtient son Baccalauréat en 1907, puis à l'Université Harvard où il obtient son Doctorat en sciences en 1925,[Note 1].
+Il enseigne l'entomologie à l'Université d'État du Michigan pendant un an, de 1907 à 1908, puis rejoint le Département de l'agriculture de la Caroline du Nord ou il exerce jusqu'en 1912 comme assistant entomologiste. En 1912, il devient professeur associé à l'Université d'État de Caroline du Nord où il réalisera toute sa carrière et où il deviendra professeur "William Neal Reynolds" (l'une des plus hautes distinctions de cette Université) de zoologie et d'entomologie en 1953.
+Il épouse, le 20 octobre 1909, Mary Luella Correll originaire de Wooster dans l'Ohio dont il aura une fille, Katherine (épouse Brown).
+Il a été directeur du Département de zoologie et d'entomologie de l'Université d'État de Caroline du Nord de 1912 à 1950, directeur de l'Enseignement à l'Ecole d'Agriculture de 1923 à 1944, directeur des études supérieures de 1940 à 1943 et vice-doyen de la Graduate School de 1943 à 1950. À diverses occasions, il a été professeur invité à l'Université d'État de l'Ohio, à l'Université d'État du Michigan et à l'Université Duke,.
+Zeno Payne Metcalf a été un membre actif de nombreuses sociétés savantes et a notamment été président de la Société américaine d'écologie (1949) et de l'American Microscopical Society (1927),. Il a également été éditeur de la revue Ecology et président de l'Académie des sciences de Caroline du Nord.
+Il est mort le 5 janvier 1956 dans sa maison de Raleigh, Caroline du Nord aux États-Unis,. Il est enterré au cimetière Oakwood de Raleigh, Caroline du Nord.
 </t>
         </is>
       </c>
@@ -548,16 +562,92 @@
           <t>Héritage naturaliste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zeno Payne Metcalf est l'auteur de 9 livres et de 96 publications sur les homoptères. Il a également participé à la préparation d'un catalogue de 42 volumes des homoptères du monde dont quinze volumes avait été publiés ou étaient sous presse au moment de sa mort et plusieurs autres quasiment complétés[2]. Le catalogue a été complété par la suite et comptait à sa mort plus de 512000 références bibliographiques[3].
-Il a publié avec son frère Clell Lee Metcalf[6],[4].
-Il était proche du botaniste Bertram Whittier Wells avec lequel il a œuvré pour l'enseignement de la théorie de l'évolution[7].
-Liste de sous-familles, super-tribus, tribus, sous-tribus, genres, sous-genre, espèces et sous-espèces décrits
-Au cours de la quarantaine d'années de recherche principalement consacrée à l'étude des Auchenorrhyncha, Zeno Payne Metcalf a décrit et nommé un nombre notable de sous-familles, super-tribus, tribus, sous-tribus, genres, sous-genre, espèces et sous-espèces nouvelles[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zeno Payne Metcalf est l'auteur de 9 livres et de 96 publications sur les homoptères. Il a également participé à la préparation d'un catalogue de 42 volumes des homoptères du monde dont quinze volumes avait été publiés ou étaient sous presse au moment de sa mort et plusieurs autres quasiment complétés. Le catalogue a été complété par la suite et comptait à sa mort plus de 512000 références bibliographiques.
+Il a publié avec son frère Clell Lee Metcalf,.
+Il était proche du botaniste Bertram Whittier Wells avec lequel il a œuvré pour l'enseignement de la théorie de l'évolution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Héritage naturaliste</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste de sous-familles, super-tribus, tribus, sous-tribus, genres, sous-genre, espèces et sous-espèces décrits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours de la quarantaine d'années de recherche principalement consacrée à l'étude des Auchenorrhyncha, Zeno Payne Metcalf a décrit et nommé un nombre notable de sous-familles, super-tribus, tribus, sous-tribus, genres, sous-genre, espèces et sous-espèces nouvelles,.
 Les taxons décrits par Zeno Payne Metcalf ne doivent pas être confondus avec ceux décrits par son frère Clell Lee Metcalf comme Sericomyia carolinensis (Metcalf, 1917) par exemple.
-Sous-familles, super-tribus, tribus et sous-tribus
-Sous-famille
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Héritage naturaliste</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste de sous-familles, super-tribus, tribus, sous-tribus, genres, sous-genre, espèces et sous-espèces décrits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sous-familles, super-tribus, tribus et sous-tribus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sous-famille
 Amyclinae Metcalf, 1938
 Super-tribu
 Apatesonites Metcalf, 1938
@@ -574,8 +664,47 @@
 Zannini Metcalf, 1938
 Sous-tribus
 Calyptoproctina Metcalf, 1938
-Odontopterina Metcalf, 1938
-Genres et sous-genres
+Odontopterina Metcalf, 1938</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Héritage naturaliste</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste de sous-familles, super-tribus, tribus, sous-tribus, genres, sous-genre, espèces et sous-espèces décrits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Genres et sous-genres</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Genres
 Acanthocerana Metcalf, 1945
 Achilorma Metcalf &amp; Bruner, 1930
@@ -644,7 +773,47 @@
 Cixidia (Epiptera) Metcalf, 1922
 Perissana (Perissana) Metcalf, 1952
 Sevia (Ateson) Metcalf, 1938
-Espèces et sous-espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Héritage naturaliste</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste de sous-familles, super-tribus, tribus, sous-tribus, genres, sous-genre, espèces et sous-espèces décrits</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Espèces et sous-espèces</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Acanalonia carinata Metcalf &amp; Bruner, 1930
 Acanalonia fasciata Metcalf, 1923
 Acanalonia gundlachi Metcalf &amp; Bruner, 1930
@@ -853,61 +1022,137 @@
 Vutina bipunctata Metcalf, 1938
 Zanna westwoodi Metcalf, 1947
 Zeunasa turca fustotestacea (Metcalf, 1947)
-Hommages
-Rendant hommage à son travail, certains auteurs ont nommé de nouvelles espèces en son honneur avec les épithètes metcalfi ou metcalfa[Note 2].
-Liste des genres, espèces et sous-espèces nommés en l'honneur de Zeno Payne Metcalf
-Metcalfa Caldwell, 1951[12](ordre des Hemiptera, famille des Flatidae)
-Accacidia metcalfi Dworakowska, 1974[13] (ordre des Hemiptera, famille des Cicadellidae)
-Bhatia metcalfi (Linnavuori, 1960)[14] (ordre des Hemiptera, famille des Cicadellidae)
-Bothriocera metcalfi Caldwell, 1943[15] (ordre des Hemiptera, famille des Cixiidae)
-Caffrocixius metcalfi van Stalle, 1987[16] (ordre des Hemiptera, famille des Cixiidae)
-Cedusa metcalfi Flynn &amp; Kramer, 1983[17]  (ordre des Hemiptera, famille des Derbidae)
-Cixius metcalfi Kramer, 1981[18] (ordre des Hemiptera, famille des Cixiidae)
-Cosmoscarta metcalfi Yuan &amp; Zhou, 1992 [19]
-Cyrpoptus metcalfi Ball, 1933[20]
-Deltocephalus metcalfi Kramer, 1965[21] (ordre des Hemiptera, famille des Cicadellidae)
-Docalidia metcalfi Nielson, 1979[22] (ordre des Hemiptera, famille des Cicadellidae)
-Dorisiana metcalfi Sanborn &amp; Heath, 2014[23] (ordre des Hemiptera, famille des Cicadidae)
-Elachodelphax metcalfi (Kusnezov, 1929)[24] (ordre des Hemiptera, famille des Delphacidae)
-Eumyndus metcalfi Synave, 1956[25] (ordre des Hemiptera, famille des Cixiidae)
-Herpis metcalfi O'Brien, 1987[26] (ordre des Hemiptera, famille des Derbidae)
-Hyalodictyon metcalfi O'Brien, 1987[26] (ordre des Hemiptera, famille des Dictyopharidae)
-Metcracis metcalfi (O'Brien, 1987)[26] (ordre des Hemiptera, famille des Flatidae)
-Mioscarta metcalfi Lallemand &amp; Synave, 1953[27] (ordre des Hemiptera, famille des Cercopidae)
-Pintalia metcalfi O'Brien, 1987[26] (ordre des Hemiptera, famille des Cixiidae)
-Plethodon metcalfi Brimley, 1912[28] (ordre des Caudata, famille des Plethodontidae)[Note 3]
-Saccharodite metcalfi Zelazny, 1981[29] (ordre des Hemiptera, famille des Derbidae)
-Sinophora metcalfi Anufriev, 1972[30] (ordre des Hemiptera, famille des Aphrophoridae)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Héritage naturaliste</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rendant hommage à son travail, certains auteurs ont nommé de nouvelles espèces en son honneur avec les épithètes metcalfi ou metcalfa[Note 2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zeno_Payne_Metcalf</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Héritage naturaliste</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hommages</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Liste des genres, espèces et sous-espèces nommés en l'honneur de Zeno Payne Metcalf</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Metcalfa Caldwell, 1951(ordre des Hemiptera, famille des Flatidae)
+Accacidia metcalfi Dworakowska, 1974 (ordre des Hemiptera, famille des Cicadellidae)
+Bhatia metcalfi (Linnavuori, 1960) (ordre des Hemiptera, famille des Cicadellidae)
+Bothriocera metcalfi Caldwell, 1943 (ordre des Hemiptera, famille des Cixiidae)
+Caffrocixius metcalfi van Stalle, 1987 (ordre des Hemiptera, famille des Cixiidae)
+Cedusa metcalfi Flynn &amp; Kramer, 1983  (ordre des Hemiptera, famille des Derbidae)
+Cixius metcalfi Kramer, 1981 (ordre des Hemiptera, famille des Cixiidae)
+Cosmoscarta metcalfi Yuan &amp; Zhou, 1992 
+Cyrpoptus metcalfi Ball, 1933
+Deltocephalus metcalfi Kramer, 1965 (ordre des Hemiptera, famille des Cicadellidae)
+Docalidia metcalfi Nielson, 1979 (ordre des Hemiptera, famille des Cicadellidae)
+Dorisiana metcalfi Sanborn &amp; Heath, 2014 (ordre des Hemiptera, famille des Cicadidae)
+Elachodelphax metcalfi (Kusnezov, 1929) (ordre des Hemiptera, famille des Delphacidae)
+Eumyndus metcalfi Synave, 1956 (ordre des Hemiptera, famille des Cixiidae)
+Herpis metcalfi O'Brien, 1987 (ordre des Hemiptera, famille des Derbidae)
+Hyalodictyon metcalfi O'Brien, 1987 (ordre des Hemiptera, famille des Dictyopharidae)
+Metcracis metcalfi (O'Brien, 1987) (ordre des Hemiptera, famille des Flatidae)
+Mioscarta metcalfi Lallemand &amp; Synave, 1953 (ordre des Hemiptera, famille des Cercopidae)
+Pintalia metcalfi O'Brien, 1987 (ordre des Hemiptera, famille des Cixiidae)
+Plethodon metcalfi Brimley, 1912 (ordre des Caudata, famille des Plethodontidae)[Note 3]
+Saccharodite metcalfi Zelazny, 1981 (ordre des Hemiptera, famille des Derbidae)
+Sinophora metcalfi Anufriev, 1972 (ordre des Hemiptera, famille des Aphrophoridae)
 Un bâtiment de l'Université d'Etat de Caroline du Nord porte son nom, le Metcalf Hall, 2811 Thurman Drive, North Carolina State University, Hillsborough, Raleigh, Caroline du Nord, Etats-Unis.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Zeno_Payne_Metcalf</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Zeno_Payne_Metcalf</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Liste partielle de publications et d'ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Liste partielle (à dérouler)
@@ -971,7 +1216,7 @@
 Metcalf, Z. P. 1946. A new species of Delphacodes from Alberta (Fulgoroidea). The Canadian Entomologist, 78: 63-65.
 Metcalf, Z. P. 1946. Taxonomy and the biologists. Science. (n.s.), 104: 328-329.
 Metcalf, Z. P. 1946. Homoptera. Fulgoroidea and Jassoidea of Guam. Bernice P. Bishop Museum bulletin, 189: 105-148.
-Metcalf, Z. P. 1946. The center of origin theory. Journal of the Elisha Mitchell Scientific Society, [1947]. 62: 149-175.
+Metcalf, Z. P. 1946. The center of origin theory. Journal of the Elisha Mitchell Scientific Society, . 62: 149-175.
 Metcalf, Z. P. 1947. The center of origin theory. Journal of the Elisha Mitchell Scientific Society, 62: 149-175.
 Metcalf, Z. P. 1947. Systematic zoology and the other branches of zoology. Journal of the Tennessee Academy of Science, 22: 232-239.
 Metcalf, Z. P. 1947. General catalogue of the Hemiptera. Fascicle IV: Fulgoroidea. Part 9. Fulgoridae. Northampton, MA: Smith College. 276 pages.
